--- a/StateHospitalSpclty.xlsx
+++ b/StateHospitalSpclty.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subha/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/subha/Downloads/StateHospitalOrgan-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E516F003-E355-2643-864B-D5B0453D5BD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DFE07D-BE43-F048-B956-72C6AC40DE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15840" xr2:uid="{D2382341-FAFB-9E43-9401-4BBBC0C51380}"/>
   </bookViews>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3F4362-7649-7F4B-AF49-6F096217A3AB}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,114 +576,114 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -705,49 +705,49 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -758,10 +758,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -786,10 +786,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -800,24 +800,24 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
@@ -828,10 +828,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
@@ -842,10 +842,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
@@ -856,10 +856,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -870,10 +870,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
@@ -884,10 +884,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -898,30 +898,30 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -929,13 +929,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
+        <v>34</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -943,13 +943,13 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
+        <v>34</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -957,97 +957,97 @@
         <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1055,12 +1055,12 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1069,12 +1069,12 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1083,13 +1083,13 @@
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1097,13 +1097,13 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>13</v>
+        <v>33</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
